--- a/system/src/main/resources/static/demo/web_excel.xlsx
+++ b/system/src/main/resources/static/demo/web_excel.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E32B5B-AF30-4844-806E-EBDB5EDE348F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC249EB-6969-2E44-B954-715231B26EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>采购流水号</t>
   </si>
@@ -100,6 +100,18 @@
         <family val="2"/>
       </rPr>
       <t>隔层板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>单据确认</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,21 +537,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,16 +599,19 @@
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="9"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -614,7 +630,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="9"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -633,7 +649,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -652,7 +668,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="9"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -671,7 +687,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -690,7 +706,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -709,7 +725,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -728,7 +744,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -747,7 +763,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="9"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -766,7 +782,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="9"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -785,7 +801,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -804,7 +820,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="9"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -823,7 +839,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
